--- a/data/ABSYZ/2.xlsx
+++ b/data/ABSYZ/2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\data\ABSYZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Gender-classification-for-jobs\data\ABSYZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983A120D-3F17-4765-93EE-0DFA35A3FD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6907C1E5-608F-40C7-BF68-D69831E4A43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,231 +25,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
-  <si>
-    <t>18MIS1082</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>MUHAMMAD S .</t>
   </si>
   <si>
-    <t>18MIS1041</t>
-  </si>
-  <si>
     <t>SHUHEB SYED</t>
   </si>
   <si>
-    <t>18MIS7259</t>
-  </si>
-  <si>
     <t>MOVVA CHAITANYA</t>
   </si>
   <si>
-    <t>18MIS7167</t>
-  </si>
-  <si>
     <t>GORIPARTHI GIRI PRASAD .</t>
   </si>
   <si>
-    <t>18MIS7214</t>
-  </si>
-  <si>
     <t>Shaik Munni .</t>
   </si>
   <si>
-    <t>18MIS7188</t>
-  </si>
-  <si>
     <t>YANDAPALLI SATHWIKA .</t>
   </si>
   <si>
-    <t>21MPC1010</t>
-  </si>
-  <si>
     <t>Mohamed Ibrahim</t>
   </si>
   <si>
-    <t>21MAI0029</t>
-  </si>
-  <si>
     <t>MANISHA DAS</t>
   </si>
   <si>
-    <t>18MIS0022</t>
-  </si>
-  <si>
     <t>Shankara .Narayanan R.V.</t>
   </si>
   <si>
-    <t>18MIS7022</t>
-  </si>
-  <si>
     <t>MANDADAPU JAHNAVI .</t>
   </si>
   <si>
-    <t>21MPC1011</t>
-  </si>
-  <si>
     <t>Debabrata Tah</t>
   </si>
   <si>
-    <t>18MIS7247</t>
-  </si>
-  <si>
     <t>THOLUSURI BHANU PRAKASH .</t>
   </si>
   <si>
-    <t>18MIS7238</t>
-  </si>
-  <si>
     <t>GANGA  AKHILA</t>
   </si>
   <si>
-    <t>18MIS7180</t>
-  </si>
-  <si>
     <t>G SUNIL KUMAR .</t>
   </si>
   <si>
-    <t>21MAI0038</t>
-  </si>
-  <si>
     <t>SAERI DATTA</t>
   </si>
   <si>
-    <t>18MIS7097</t>
-  </si>
-  <si>
     <t>SAMUDRALA ESWAR BALA VENKATA SUBBAIAH .</t>
   </si>
   <si>
-    <t>18MIS7013</t>
-  </si>
-  <si>
     <t>LINGI REDDY SAI GOPAL REDDY .</t>
   </si>
   <si>
-    <t>18MIS7120</t>
-  </si>
-  <si>
     <t>NEHA SRI NAGULA .</t>
   </si>
   <si>
-    <t>21MPC1009</t>
-  </si>
-  <si>
     <t>SRAVYA BHANDARU</t>
   </si>
   <si>
-    <t>18MIS7076</t>
-  </si>
-  <si>
     <t>BATCHU VENKATA PULLARAO .</t>
   </si>
   <si>
-    <t>18MIS7078</t>
-  </si>
-  <si>
     <t>KONDAMANUGULA NAGA SWAROOP Reddy</t>
   </si>
   <si>
-    <t>18MIS7074</t>
-  </si>
-  <si>
     <t>GANGASANI NITHISH KUMAR .</t>
   </si>
   <si>
-    <t>18MIS7163</t>
-  </si>
-  <si>
     <t>NAGISETTY  Mahesh babu</t>
   </si>
   <si>
-    <t>18MIS0389</t>
-  </si>
-  <si>
     <t>JEEVANANDHAM S V .</t>
   </si>
   <si>
-    <t>21MCB1003</t>
-  </si>
-  <si>
     <t>Dhiyaneshwar B</t>
   </si>
   <si>
-    <t>18MIS0075</t>
-  </si>
-  <si>
     <t>Sridevi R .</t>
   </si>
   <si>
-    <t>21MAI0010</t>
-  </si>
-  <si>
     <t>Nithya K john</t>
   </si>
   <si>
-    <t>18MIS0297</t>
-  </si>
-  <si>
     <t>KATTA LAKSHMI NARAYANA .</t>
   </si>
   <si>
-    <t>21MCB1005</t>
-  </si>
-  <si>
     <t>Kishore kumar</t>
   </si>
   <si>
-    <t>18MIS0119</t>
-  </si>
-  <si>
     <t>BUVANESHVARAN S</t>
   </si>
   <si>
-    <t>21MAI0012</t>
-  </si>
-  <si>
     <t>Anjali Chakrabarty</t>
   </si>
   <si>
-    <t>21MAI0009</t>
-  </si>
-  <si>
     <t>VIKASH KUMAR</t>
   </si>
   <si>
-    <t>18MIS7030</t>
-  </si>
-  <si>
     <t>G SAI PAVAN .</t>
   </si>
   <si>
-    <t>18MIS7191</t>
-  </si>
-  <si>
     <t>GADDE SAI RUTHVIJA DEVI .</t>
   </si>
   <si>
-    <t>18MIS0204</t>
-  </si>
-  <si>
     <t>NirmalrajL O .</t>
   </si>
   <si>
-    <t>21MAI1024</t>
-  </si>
-  <si>
     <t>KISHORE K</t>
   </si>
   <si>
-    <t>18MIS0328</t>
-  </si>
-  <si>
     <t>JAGAN J</t>
-  </si>
-  <si>
-    <t>18MIS0112</t>
   </si>
   <si>
     <t>AHARSHA VHARDHAN S</t>
@@ -288,27 +174,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -319,19 +190,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -352,15 +210,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,320 +494,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="5" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="6" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="7" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="8" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="9" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="10" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="11" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="12" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="13" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="14" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="15" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="16" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="17" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="18" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="19" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="20" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="21" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="22" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="23" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="24" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="25" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="26" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="27" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="28" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="29" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="30" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="31" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="32" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="33" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="34" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="35" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="36" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="37" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="4" t="s">
+    </row>
+    <row r="38" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
